--- a/Chapter 4/Step 4 - Classifying the Types of Code Readability Improvements/1 - Human Open Coding/Java - Open Coding - samples human evaluation.xlsx
+++ b/Chapter 4/Step 4 - Classifying the Types of Code Readability Improvements/1 - Human Open Coding/Java - Open Coding - samples human evaluation.xlsx
@@ -5891,6 +5891,9 @@
       } else {</t>
   </si>
   <si>
+    <t xml:space="preserve"> Updated examples module sources to comply with the check-style requirements.</t>
+  </si>
+  <si>
     <t>private MappedFieldType currentFieldType;</t>
   </si>
   <si>
@@ -5953,6 +5956,20 @@
   </si>
   <si>
     <t>Leverage Optional.orElseThrow to increase code readability</t>
+  </si>
+  <si>
+    <t>cleanup: extract duplicate code into method</t>
+  </si>
+  <si>
+    <t>synchronized (this) {
+                    remove0(ctx);
+                }</t>
+  </si>
+  <si>
+    <t>atomicRemoveFromHandlerList(ctx);</t>
+  </si>
+  <si>
+    <t>PR refactors duplicate code by extracting a new method</t>
   </si>
   <si>
     <t>if (cardPlugin != null) {
@@ -6179,20 +6196,6 @@
     <t>replace for loop or iterator with for-each</t>
   </si>
   <si>
-    <t>cleanup: extract duplicate code into method</t>
-  </si>
-  <si>
-    <t>synchronized (this) {
-                    remove0(ctx);
-                }</t>
-  </si>
-  <si>
-    <t>atomicRemoveFromHandlerList(ctx);</t>
-  </si>
-  <si>
-    <t>PR refactors duplicate code by extracting a new method</t>
-  </si>
-  <si>
     <t>import static com.microsoft.typespec.http.client.generator.core.mapper.CollectionUtil.toImmutableList;</t>
   </si>
   <si>
@@ -6333,9 +6336,6 @@
   </si>
   <si>
     <t xml:space="preserve"> * align declare and init order</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Updated examples module sources to comply with the check-style requirements.</t>
   </si>
   <si>
     <t>reorder elements</t>
@@ -25514,371 +25514,507 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="13" t="s">
-        <v>496</v>
-      </c>
-      <c r="B135" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C135" s="12" t="s">
+      <c r="A135" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B135" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="C135" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D135" s="8">
-        <v>43950.599803240744</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>1474</v>
+        <v>43888.64717592593</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>1399</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>500</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="6" t="s">
-        <v>501</v>
+        <v>120</v>
       </c>
       <c r="B136" s="5">
-        <v>3.0</v>
+        <v>25.0</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D136" s="8">
-        <v>44760.595300925925</v>
-      </c>
-      <c r="E136" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>1475</v>
+        <v>45159.94464120371</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>1401</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>1476</v>
-      </c>
-      <c r="H136" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="I136" s="7"/>
-      <c r="J136" s="7"/>
+        <v>1402</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>1400</v>
+      </c>
     </row>
     <row r="137">
-      <c r="A137" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4" t="s">
-        <v>505</v>
+      <c r="A137" s="6" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B137" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="8">
+        <v>45274.472604166665</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>1405</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>508</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4" t="s">
-        <v>1477</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>512</v>
+      <c r="A138" s="6" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B138" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" s="8">
+        <v>45703.10460648148</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>1409</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="I138" s="7"/>
+        <v>1400</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="6" t="s">
-        <v>589</v>
+        <v>261</v>
       </c>
       <c r="B139" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" s="8">
+        <v>42782.7422337963</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="B140" s="10">
+        <v>134.0</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" s="8">
+        <v>43671.67642361111</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>1414</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>1415</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="B141" s="10">
         <v>1.0</v>
       </c>
-      <c r="C139" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D139" s="8">
-        <v>45546.721666666665</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>1478</v>
-      </c>
-      <c r="H139" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="I139" s="7"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="B140" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D140" s="8">
-        <v>43440.048414351855</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="H140" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="I140" s="7"/>
-      <c r="J140" s="7"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="B141" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="C141" s="7" t="s">
+      <c r="C141" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D141" s="8">
-        <v>44180.27458333333</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>520</v>
+        <v>43950.599803240744</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>1475</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="I141" s="7"/>
-      <c r="J141" s="7"/>
+        <v>500</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="6" t="s">
-        <v>225</v>
+        <v>501</v>
       </c>
       <c r="B142" s="5">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D142" s="8">
-        <v>45724.586122685185</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>1479</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>522</v>
+        <v>44760.595300925925</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>1476</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="H142" s="4" t="s">
-        <v>524</v>
+        <v>1477</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>500</v>
       </c>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
     </row>
     <row r="143">
-      <c r="A143" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="B143" s="5">
-        <v>18.0</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D143" s="8">
-        <v>44029.593935185185</v>
-      </c>
-      <c r="E143" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>527</v>
+      <c r="A143" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>1480</v>
-      </c>
-      <c r="I143" s="7"/>
-      <c r="J143" s="7"/>
+        <v>508</v>
+      </c>
     </row>
     <row r="144">
-      <c r="A144" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B144" s="5">
-        <v>12.0</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D144" s="8">
-        <v>44029.59359953704</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="H144" s="3" t="s">
-        <v>532</v>
+      <c r="A144" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>508</v>
       </c>
       <c r="I144" s="7"/>
     </row>
     <row r="145">
       <c r="A145" s="6" t="s">
-        <v>120</v>
+        <v>589</v>
       </c>
       <c r="B145" s="5">
-        <v>25.0</v>
+        <v>1.0</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D145" s="8">
-        <v>45159.94464120371</v>
+        <v>45546.721666666665</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>533</v>
+        <v>590</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>534</v>
+        <v>591</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>535</v>
+        <v>1479</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>536</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="I145" s="7"/>
     </row>
     <row r="146">
-      <c r="A146" s="6" t="s">
-        <v>89</v>
+      <c r="A146" s="9" t="s">
+        <v>472</v>
       </c>
       <c r="B146" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D146" s="8">
-        <v>45261.2528125</v>
+        <v>43440.048414351855</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
     </row>
     <row r="147">
-      <c r="A147" s="13" t="s">
+      <c r="A147" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="B147" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="8">
+        <v>44180.27458333333</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="I147" s="7"/>
+      <c r="J147" s="7"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B148" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="8">
+        <v>45724.586122685185</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="I148" s="7"/>
+      <c r="J148" s="7"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B149" s="5">
+        <v>18.0</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="8">
+        <v>44029.593935185185</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>1481</v>
+      </c>
+      <c r="I149" s="7"/>
+      <c r="J149" s="7"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B150" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" s="8">
+        <v>44029.59359953704</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="I150" s="7"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B151" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" s="8">
+        <v>45159.94464120371</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B152" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" s="8">
+        <v>45261.2528125</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="I152" s="7"/>
+      <c r="J152" s="7"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="B147" s="10">
+      <c r="B153" s="10">
         <v>58.0</v>
       </c>
-      <c r="C147" s="12" t="s">
+      <c r="C153" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="D147" s="8">
+      <c r="D153" s="8">
         <v>44046.51642361111</v>
       </c>
-      <c r="E147" s="4" t="s">
+      <c r="E153" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="F147" s="4" t="s">
+      <c r="F153" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="G147" s="4" t="s">
+      <c r="G153" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="H147" s="4" t="s">
+      <c r="H153" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="J147" s="7"/>
-    </row>
-    <row r="149">
-      <c r="J149" s="7"/>
-    </row>
-    <row r="150">
-      <c r="I150" s="7"/>
-    </row>
-    <row r="151" ht="36.75" customHeight="1"/>
-    <row r="154">
-      <c r="J154" s="7"/>
+      <c r="J153" s="7"/>
     </row>
     <row r="155">
-      <c r="I155" s="3"/>
       <c r="J155" s="7"/>
     </row>
     <row r="156">
-      <c r="I156" s="3"/>
-      <c r="J156" s="7"/>
-    </row>
-    <row r="157">
-      <c r="I157" s="3"/>
-      <c r="J157" s="7"/>
-    </row>
-    <row r="158">
-      <c r="I158" s="3"/>
-      <c r="J158" s="7"/>
-    </row>
-    <row r="159">
-      <c r="I159" s="3"/>
-      <c r="J159" s="7"/>
-    </row>
+      <c r="I156" s="7"/>
+    </row>
+    <row r="157" ht="36.75" customHeight="1"/>
     <row r="160">
-      <c r="I160" s="3"/>
       <c r="J160" s="7"/>
+    </row>
+    <row r="161">
+      <c r="I161" s="3"/>
+      <c r="J161" s="7"/>
     </row>
     <row r="162">
       <c r="I162" s="3"/>
@@ -25886,123 +26022,143 @@
     </row>
     <row r="163">
       <c r="I163" s="3"/>
+      <c r="J163" s="7"/>
     </row>
     <row r="164">
       <c r="I164" s="3"/>
+      <c r="J164" s="7"/>
     </row>
     <row r="165">
       <c r="I165" s="3"/>
+      <c r="J165" s="7"/>
     </row>
     <row r="166">
       <c r="I166" s="3"/>
-    </row>
-    <row r="167">
-      <c r="J167" s="7"/>
+      <c r="J166" s="7"/>
+    </row>
+    <row r="168">
+      <c r="I168" s="3"/>
+      <c r="J168" s="7"/>
+    </row>
+    <row r="169">
+      <c r="I169" s="3"/>
+    </row>
+    <row r="170">
+      <c r="I170" s="3"/>
+    </row>
+    <row r="171">
+      <c r="I171" s="3"/>
     </row>
     <row r="172">
-      <c r="J172" s="7"/>
+      <c r="I172" s="3"/>
     </row>
     <row r="173">
       <c r="J173" s="7"/>
     </row>
-    <row r="175">
-      <c r="J175" s="7"/>
-    </row>
-    <row r="176">
-      <c r="J176" s="7"/>
-    </row>
     <row r="178">
       <c r="J178" s="7"/>
     </row>
-    <row r="180">
-      <c r="J180" s="7"/>
+    <row r="179">
+      <c r="J179" s="7"/>
+    </row>
+    <row r="181">
+      <c r="J181" s="7"/>
     </row>
     <row r="182">
       <c r="J182" s="7"/>
     </row>
-    <row r="185">
-      <c r="J185" s="7"/>
+    <row r="184">
+      <c r="J184" s="7"/>
     </row>
     <row r="186">
       <c r="J186" s="7"/>
     </row>
-    <row r="187">
-      <c r="J187" s="7"/>
-    </row>
     <row r="188">
       <c r="J188" s="7"/>
     </row>
-    <row r="189">
-      <c r="J189" s="7"/>
-    </row>
-    <row r="190">
-      <c r="J190" s="7"/>
+    <row r="191">
+      <c r="J191" s="7"/>
+    </row>
+    <row r="192">
+      <c r="J192" s="7"/>
     </row>
     <row r="193">
-      <c r="I193" s="7"/>
-    </row>
-    <row r="198">
-      <c r="I198" s="7"/>
+      <c r="J193" s="7"/>
+    </row>
+    <row r="194">
+      <c r="J194" s="7"/>
+    </row>
+    <row r="195">
+      <c r="J195" s="7"/>
+    </row>
+    <row r="196">
+      <c r="J196" s="7"/>
     </row>
     <row r="199">
       <c r="I199" s="7"/>
     </row>
-    <row r="200">
-      <c r="I200" s="7"/>
-    </row>
-    <row r="201">
-      <c r="I201" s="7"/>
-    </row>
-    <row r="202">
-      <c r="I202" s="7"/>
-    </row>
-    <row r="203">
-      <c r="I203" s="7"/>
-    </row>
     <row r="204">
       <c r="I204" s="7"/>
     </row>
+    <row r="205">
+      <c r="I205" s="7"/>
+    </row>
     <row r="206">
       <c r="I206" s="7"/>
     </row>
-    <row r="211">
-      <c r="I211" s="7"/>
-    </row>
-    <row r="216">
-      <c r="I216" s="7"/>
+    <row r="207">
+      <c r="I207" s="7"/>
+    </row>
+    <row r="208">
+      <c r="I208" s="7"/>
+    </row>
+    <row r="209">
+      <c r="I209" s="7"/>
+    </row>
+    <row r="210">
+      <c r="I210" s="7"/>
+    </row>
+    <row r="212">
+      <c r="I212" s="7"/>
     </row>
     <row r="217">
       <c r="I217" s="7"/>
     </row>
-    <row r="219">
-      <c r="I219" s="7"/>
-    </row>
-    <row r="220">
-      <c r="I220" s="7"/>
-    </row>
     <row r="222">
       <c r="I222" s="7"/>
     </row>
-    <row r="224">
-      <c r="I224" s="7"/>
-    </row>
-    <row r="227">
-      <c r="I227" s="7"/>
+    <row r="223">
+      <c r="I223" s="7"/>
+    </row>
+    <row r="225">
+      <c r="I225" s="7"/>
+    </row>
+    <row r="226">
+      <c r="I226" s="7"/>
     </row>
     <row r="228">
       <c r="I228" s="7"/>
     </row>
-    <row r="229">
-      <c r="I229" s="7"/>
-    </row>
     <row r="230">
       <c r="I230" s="7"/>
     </row>
-    <row r="231">
-      <c r="I231" s="7"/>
-    </row>
-    <row r="232">
-      <c r="I232" s="7"/>
+    <row r="233">
+      <c r="I233" s="7"/>
+    </row>
+    <row r="234">
+      <c r="I234" s="7"/>
+    </row>
+    <row r="235">
+      <c r="I235" s="7"/>
+    </row>
+    <row r="236">
+      <c r="I236" s="7"/>
+    </row>
+    <row r="237">
+      <c r="I237" s="7"/>
+    </row>
+    <row r="238">
+      <c r="I238" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -26153,8 +26309,14 @@
     <hyperlink r:id="rId145" ref="A145"/>
     <hyperlink r:id="rId146" ref="A146"/>
     <hyperlink r:id="rId147" ref="A147"/>
+    <hyperlink r:id="rId148" ref="A148"/>
+    <hyperlink r:id="rId149" ref="A149"/>
+    <hyperlink r:id="rId150" ref="A150"/>
+    <hyperlink r:id="rId151" ref="A151"/>
+    <hyperlink r:id="rId152" ref="A152"/>
+    <hyperlink r:id="rId153" ref="A153"/>
   </hyperlinks>
-  <drawing r:id="rId148"/>
+  <drawing r:id="rId154"/>
 </worksheet>
 </file>
 
@@ -26310,7 +26472,7 @@
         <v>43992.68890046296</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>561</v>
@@ -26560,7 +26722,7 @@
         <v>549</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="15">
@@ -26589,7 +26751,7 @@
         <v>549</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="16">
@@ -26618,7 +26780,7 @@
         <v>549</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="17">
@@ -26647,7 +26809,7 @@
         <v>549</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="18">
@@ -26676,7 +26838,7 @@
         <v>549</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="19">
@@ -26741,7 +26903,7 @@
         <v>44019.84532407407</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>552</v>
@@ -26905,7 +27067,7 @@
         <v>635</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>554</v>
@@ -27000,7 +27162,7 @@
         <v>554</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -27045,7 +27207,7 @@
         <v>554</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -27552,7 +27714,7 @@
         <v>666</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
@@ -27601,7 +27763,7 @@
         <v>661</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
@@ -27677,7 +27839,7 @@
         <v>661</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
@@ -27726,7 +27888,7 @@
         <v>661</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="J47" s="7"/>
       <c r="L47" s="7"/>
@@ -27776,7 +27938,7 @@
         <v>661</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="J48" s="7"/>
       <c r="L48" s="7"/>
@@ -27826,7 +27988,7 @@
         <v>661</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
@@ -27877,7 +28039,7 @@
         <v>661</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
@@ -27917,10 +28079,10 @@
         <v>863</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>661</v>
@@ -27940,7 +28102,7 @@
         <v>44809.59725694444</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>735</v>
@@ -27952,7 +28114,7 @@
         <v>661</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
@@ -28001,7 +28163,7 @@
         <v>661</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="J53" s="7"/>
       <c r="L53" s="7"/>
@@ -28027,28 +28189,28 @@
     </row>
     <row r="54">
       <c r="A54" s="13" t="s">
-        <v>741</v>
+        <v>948</v>
       </c>
       <c r="B54" s="10">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>308</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8">
-        <v>44830.575162037036</v>
+        <v>44048.62490740741</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>742</v>
+        <v>949</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>1490</v>
+        <v>950</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>1491</v>
+        <v>951</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>745</v>
+        <v>952</v>
       </c>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
@@ -28072,33 +28234,24 @@
       <c r="AE54" s="7"/>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="s">
-        <v>979</v>
-      </c>
-      <c r="B55" s="5">
+      <c r="A55" s="13" t="s">
+        <v>953</v>
+      </c>
+      <c r="B55" s="10">
         <v>1.0</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="8">
-        <v>45509.32277777778</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>980</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>981</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>982</v>
+        <v>43483.78111111111</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>954</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
+        <v>952</v>
+      </c>
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
@@ -28121,33 +28274,30 @@
       <c r="AE55" s="7"/>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B56" s="5">
+      <c r="A56" s="13" t="s">
+        <v>959</v>
+      </c>
+      <c r="B56" s="10">
         <v>1.0</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D56" s="8">
-        <v>44352.48664351852</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>1077</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>1078</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>1079</v>
+        <v>43481.413981481484</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>962</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
+        <v>952</v>
+      </c>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
@@ -28163,31 +28313,30 @@
       <c r="X56" s="7"/>
       <c r="Y56" s="7"/>
       <c r="Z56" s="7"/>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="7"/>
+      <c r="AE56" s="7"/>
     </row>
     <row r="57">
       <c r="A57" s="13" t="s">
-        <v>167</v>
+        <v>963</v>
       </c>
       <c r="B57" s="10">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="D57" s="8">
-        <v>44543.595555555556</v>
+        <v>43056.28474537037</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>748</v>
+        <v>964</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>745</v>
+        <v>952</v>
       </c>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
@@ -28212,28 +28361,22 @@
     </row>
     <row r="58">
       <c r="A58" s="13" t="s">
-        <v>749</v>
+        <v>965</v>
       </c>
       <c r="B58" s="10">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="D58" s="8">
-        <v>43957.4865625</v>
+        <v>44145.91936342593</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>1492</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>751</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>752</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>745</v>
+        <v>966</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>952</v>
       </c>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
@@ -28257,27 +28400,24 @@
       <c r="AE58" s="7"/>
     </row>
     <row r="59">
-      <c r="A59" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="B59" s="5">
-        <v>16.0</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>10</v>
+      <c r="A59" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="D59" s="8">
-        <v>45113.239652777775</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
+        <v>43662.7924537037</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>970</v>
+      </c>
       <c r="H59" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="K59" s="7"/>
+        <v>952</v>
+      </c>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
@@ -28300,31 +28440,30 @@
       <c r="AE59" s="7"/>
     </row>
     <row r="60">
-      <c r="A60" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B60" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>10</v>
+      <c r="A60" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B60" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="D60" s="8">
-        <v>45699.051469907405</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>754</v>
+        <v>43713.30019675926</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>971</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>756</v>
+        <v>1492</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>1493</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="K60" s="7"/>
+        <v>952</v>
+      </c>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
@@ -28347,8 +28486,8 @@
       <c r="AE60" s="7"/>
     </row>
     <row r="61">
-      <c r="A61" s="6" t="s">
-        <v>221</v>
+      <c r="A61" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="B61" s="5">
         <v>1.0</v>
@@ -28357,21 +28496,16 @@
         <v>10</v>
       </c>
       <c r="D61" s="8">
-        <v>45372.83511574074</v>
+        <v>45542.427037037036</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>758</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="K61" s="7"/>
+        <v>1494</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="3" t="s">
+        <v>952</v>
+      </c>
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
@@ -28395,30 +28529,23 @@
     </row>
     <row r="62">
       <c r="A62" s="6" t="s">
-        <v>765</v>
+        <v>975</v>
       </c>
       <c r="B62" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D62" s="8">
-        <v>45343.44196759259</v>
+        <v>43529.461331018516</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>1493</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>1494</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="K62" s="7"/>
+        <v>976</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>952</v>
+      </c>
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
@@ -28441,31 +28568,26 @@
       <c r="AE62" s="7"/>
     </row>
     <row r="63">
-      <c r="A63" s="13" t="s">
-        <v>774</v>
-      </c>
-      <c r="B63" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>134</v>
+      <c r="A63" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="B63" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D63" s="8">
-        <v>43579.517696759256</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>775</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>776</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>777</v>
-      </c>
+        <v>43306.89791666667</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
       <c r="H63" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="K63" s="7"/>
+        <v>952</v>
+      </c>
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
@@ -28488,31 +28610,30 @@
       <c r="AE63" s="7"/>
     </row>
     <row r="64">
-      <c r="A64" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="B64" s="5">
+      <c r="A64" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="B64" s="10">
         <v>3.0</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>10</v>
+      <c r="C64" s="12" t="s">
+        <v>308</v>
       </c>
       <c r="D64" s="8">
-        <v>45106.55601851852</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>781</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>782</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="K64" s="7"/>
+        <v>44830.575162037036</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>1496</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>745</v>
+      </c>
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
@@ -28536,7 +28657,7 @@
     </row>
     <row r="65">
       <c r="A65" s="6" t="s">
-        <v>783</v>
+        <v>979</v>
       </c>
       <c r="B65" s="5">
         <v>1.0</v>
@@ -28545,20 +28666,22 @@
         <v>10</v>
       </c>
       <c r="D65" s="8">
-        <v>45191.95024305556</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>784</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>785</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>786</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>778</v>
-      </c>
+        <v>45509.32277777778</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
@@ -28583,7 +28706,7 @@
     </row>
     <row r="66">
       <c r="A66" s="6" t="s">
-        <v>787</v>
+        <v>1076</v>
       </c>
       <c r="B66" s="5">
         <v>1.0</v>
@@ -28592,20 +28715,22 @@
         <v>10</v>
       </c>
       <c r="D66" s="8">
-        <v>45359.75125</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>788</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>789</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>790</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>778</v>
-      </c>
+        <v>44352.48664351852</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
@@ -28622,38 +28747,32 @@
       <c r="X66" s="7"/>
       <c r="Y66" s="7"/>
       <c r="Z66" s="7"/>
-      <c r="AA66" s="7"/>
-      <c r="AB66" s="7"/>
-      <c r="AC66" s="7"/>
-      <c r="AD66" s="7"/>
-      <c r="AE66" s="7"/>
     </row>
     <row r="67">
-      <c r="A67" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="B67" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C67" s="7" t="s">
+      <c r="A67" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B67" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C67" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D67" s="8">
-        <v>45106.55601851852</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>781</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="K67" s="7"/>
+        <v>44543.595555555556</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>745</v>
+      </c>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
@@ -28676,31 +28795,30 @@
       <c r="AE67" s="7"/>
     </row>
     <row r="68">
-      <c r="A68" s="6" t="s">
-        <v>783</v>
-      </c>
-      <c r="B68" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="C68" s="7" t="s">
+      <c r="A68" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="B68" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C68" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D68" s="8">
-        <v>45191.95024305556</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="K68" s="7"/>
+        <v>43957.4865625</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>745</v>
+      </c>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
@@ -28724,28 +28842,24 @@
     </row>
     <row r="69">
       <c r="A69" s="6" t="s">
-        <v>787</v>
+        <v>420</v>
       </c>
       <c r="B69" s="5">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D69" s="8">
-        <v>45359.75125</v>
+        <v>45113.239652777775</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>778</v>
+        <v>753</v>
+      </c>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="4" t="s">
+        <v>745</v>
       </c>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
@@ -28771,28 +28885,28 @@
     </row>
     <row r="70">
       <c r="A70" s="6" t="s">
-        <v>791</v>
+        <v>39</v>
       </c>
       <c r="B70" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D70" s="8">
-        <v>44650.05915509259</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>792</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>793</v>
+        <v>45699.051469907405</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>755</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>795</v>
+        <v>756</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>745</v>
       </c>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
@@ -28818,7 +28932,7 @@
     </row>
     <row r="71">
       <c r="A71" s="6" t="s">
-        <v>796</v>
+        <v>221</v>
       </c>
       <c r="B71" s="5">
         <v>1.0</v>
@@ -28827,19 +28941,19 @@
         <v>10</v>
       </c>
       <c r="D71" s="8">
-        <v>44200.90405092593</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>797</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>798</v>
+        <v>45372.83511574074</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>758</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>795</v>
+        <v>759</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>745</v>
       </c>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
@@ -28865,28 +28979,28 @@
     </row>
     <row r="72">
       <c r="A72" s="6" t="s">
-        <v>472</v>
+        <v>765</v>
       </c>
       <c r="B72" s="5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D72" s="8">
-        <v>43440.048414351855</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>800</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>801</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>795</v>
+        <v>45343.44196759259</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>1498</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>1499</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>745</v>
       </c>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
@@ -28912,54 +29026,75 @@
     </row>
     <row r="73">
       <c r="A73" s="13" t="s">
-        <v>432</v>
+        <v>774</v>
       </c>
       <c r="B73" s="10">
-        <v>58.0</v>
+        <v>1.0</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>433</v>
+        <v>134</v>
       </c>
       <c r="D73" s="8">
-        <v>44046.51642361111</v>
+        <v>43579.517696759256</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>967</v>
+        <v>775</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>1495</v>
+        <v>776</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>1496</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>807</v>
-      </c>
+        <v>777</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="7"/>
+      <c r="AA73" s="7"/>
+      <c r="AB73" s="7"/>
+      <c r="AC73" s="7"/>
+      <c r="AD73" s="7"/>
+      <c r="AE73" s="7"/>
     </row>
     <row r="74">
       <c r="A74" s="6" t="s">
-        <v>803</v>
+        <v>779</v>
       </c>
       <c r="B74" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="8">
-        <v>44118.617106481484</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>1497</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>1498</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>807</v>
+        <v>45106.55601851852</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>778</v>
       </c>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
@@ -28985,7 +29120,7 @@
     </row>
     <row r="75">
       <c r="A75" s="6" t="s">
-        <v>808</v>
+        <v>783</v>
       </c>
       <c r="B75" s="5">
         <v>1.0</v>
@@ -28994,19 +29129,19 @@
         <v>10</v>
       </c>
       <c r="D75" s="8">
-        <v>44539.6081712963</v>
+        <v>45191.95024305556</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>1499</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>1500</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>1501</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>807</v>
+        <v>784</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>778</v>
       </c>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
@@ -29032,28 +29167,28 @@
     </row>
     <row r="76">
       <c r="A76" s="6" t="s">
-        <v>472</v>
+        <v>787</v>
       </c>
       <c r="B76" s="5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D76" s="8">
-        <v>43440.048414351855</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>807</v>
+        <v>45359.75125</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>778</v>
       </c>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
@@ -29079,28 +29214,28 @@
     </row>
     <row r="77">
       <c r="A77" s="6" t="s">
-        <v>815</v>
+        <v>779</v>
       </c>
       <c r="B77" s="5">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D77" s="8">
-        <v>45581.58190972222</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>816</v>
+        <v>45106.55601851852</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>780</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>1502</v>
+        <v>781</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>1503</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>807</v>
+        <v>782</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>778</v>
       </c>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
@@ -29126,85 +29261,123 @@
     </row>
     <row r="78">
       <c r="A78" s="6" t="s">
-        <v>120</v>
+        <v>783</v>
       </c>
       <c r="B78" s="5">
-        <v>25.0</v>
+        <v>1.0</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D78" s="8">
-        <v>45159.94464120371</v>
+        <v>45191.95024305556</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>819</v>
+        <v>784</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>1504</v>
+        <v>785</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>1505</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>807</v>
-      </c>
+        <v>786</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="7"/>
+      <c r="U78" s="7"/>
+      <c r="V78" s="7"/>
+      <c r="W78" s="7"/>
+      <c r="X78" s="7"/>
+      <c r="Y78" s="7"/>
+      <c r="Z78" s="7"/>
+      <c r="AA78" s="7"/>
+      <c r="AB78" s="7"/>
+      <c r="AC78" s="7"/>
+      <c r="AD78" s="7"/>
+      <c r="AE78" s="7"/>
     </row>
     <row r="79">
       <c r="A79" s="6" t="s">
-        <v>733</v>
+        <v>787</v>
       </c>
       <c r="B79" s="5">
-        <v>266.0</v>
+        <v>1.0</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D79" s="8">
-        <v>44809.59725694444</v>
+        <v>45359.75125</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>822</v>
+        <v>788</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>823</v>
+        <v>789</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>807</v>
-      </c>
+        <v>790</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+      <c r="Y79" s="7"/>
+      <c r="Z79" s="7"/>
+      <c r="AA79" s="7"/>
+      <c r="AB79" s="7"/>
+      <c r="AC79" s="7"/>
+      <c r="AD79" s="7"/>
+      <c r="AE79" s="7"/>
     </row>
     <row r="80">
       <c r="A80" s="6" t="s">
-        <v>825</v>
+        <v>791</v>
       </c>
       <c r="B80" s="5">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D80" s="8">
-        <v>45750.74662037037</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>826</v>
+        <v>44650.05915509259</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>792</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>827</v>
+        <v>793</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>1506</v>
-      </c>
-      <c r="J80" s="7"/>
+        <v>794</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>795</v>
+      </c>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
@@ -29221,223 +29394,297 @@
       <c r="X80" s="7"/>
       <c r="Y80" s="7"/>
       <c r="Z80" s="7"/>
+      <c r="AA80" s="7"/>
+      <c r="AB80" s="7"/>
+      <c r="AC80" s="7"/>
+      <c r="AD80" s="7"/>
+      <c r="AE80" s="7"/>
     </row>
     <row r="81">
-      <c r="A81" s="13" t="s">
-        <v>830</v>
-      </c>
-      <c r="B81" s="10">
+      <c r="A81" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="B81" s="5">
         <v>1.0</v>
       </c>
-      <c r="C81" s="12" t="s">
-        <v>160</v>
+      <c r="C81" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D81" s="8">
-        <v>43179.46226851852</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>831</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>832</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>833</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>1507</v>
-      </c>
-      <c r="J81" s="7"/>
+        <v>44200.90405092593</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="7"/>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7"/>
+      <c r="V81" s="7"/>
+      <c r="W81" s="7"/>
+      <c r="X81" s="7"/>
+      <c r="Y81" s="7"/>
+      <c r="Z81" s="7"/>
+      <c r="AA81" s="7"/>
+      <c r="AB81" s="7"/>
+      <c r="AC81" s="7"/>
+      <c r="AD81" s="7"/>
+      <c r="AE81" s="7"/>
     </row>
     <row r="82">
-      <c r="A82" s="13" t="s">
-        <v>834</v>
-      </c>
-      <c r="B82" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>160</v>
+      <c r="A82" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B82" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D82" s="8">
-        <v>43895.682604166665</v>
+        <v>43440.048414351855</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>837</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>1507</v>
-      </c>
-      <c r="J82" s="7"/>
+        <v>802</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
+      <c r="W82" s="7"/>
+      <c r="X82" s="7"/>
+      <c r="Y82" s="7"/>
+      <c r="Z82" s="7"/>
+      <c r="AA82" s="7"/>
+      <c r="AB82" s="7"/>
+      <c r="AC82" s="7"/>
+      <c r="AD82" s="7"/>
+      <c r="AE82" s="7"/>
     </row>
     <row r="83">
       <c r="A83" s="13" t="s">
-        <v>838</v>
+        <v>432</v>
       </c>
       <c r="B83" s="10">
-        <v>1.0</v>
+        <v>58.0</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>10</v>
+        <v>433</v>
       </c>
       <c r="D83" s="8">
-        <v>43742.522465277776</v>
+        <v>44046.51642361111</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>839</v>
+        <v>967</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>840</v>
+        <v>1500</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>841</v>
+        <v>1501</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>1507</v>
-      </c>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="7"/>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
-      <c r="Q83" s="7"/>
-      <c r="R83" s="7"/>
-      <c r="S83" s="7"/>
-      <c r="T83" s="7"/>
-      <c r="U83" s="7"/>
-      <c r="V83" s="7"/>
-      <c r="W83" s="7"/>
-      <c r="X83" s="7"/>
-      <c r="Y83" s="7"/>
-      <c r="Z83" s="7"/>
+        <v>807</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="6" t="s">
-        <v>321</v>
+        <v>803</v>
       </c>
       <c r="B84" s="5">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D84" s="8">
-        <v>43210.3409837963</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>842</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>844</v>
+        <v>44118.617106481484</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>1503</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>1506</v>
-      </c>
-      <c r="J84" s="7"/>
+        <v>807</v>
+      </c>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7"/>
+      <c r="U84" s="7"/>
+      <c r="V84" s="7"/>
+      <c r="W84" s="7"/>
+      <c r="X84" s="7"/>
+      <c r="Y84" s="7"/>
+      <c r="Z84" s="7"/>
+      <c r="AA84" s="7"/>
+      <c r="AB84" s="7"/>
+      <c r="AC84" s="7"/>
+      <c r="AD84" s="7"/>
+      <c r="AE84" s="7"/>
     </row>
     <row r="85">
       <c r="A85" s="6" t="s">
-        <v>845</v>
+        <v>808</v>
       </c>
       <c r="B85" s="5">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D85" s="8">
-        <v>44961.1037037037</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>846</v>
+        <v>44539.6081712963</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>1504</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>847</v>
+        <v>1505</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>848</v>
+        <v>1506</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>1506</v>
-      </c>
-      <c r="J85" s="7"/>
+        <v>807</v>
+      </c>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
+      <c r="Y85" s="7"/>
+      <c r="Z85" s="7"/>
+      <c r="AA85" s="7"/>
+      <c r="AB85" s="7"/>
+      <c r="AC85" s="7"/>
+      <c r="AD85" s="7"/>
+      <c r="AE85" s="7"/>
     </row>
     <row r="86">
-      <c r="A86" s="11" t="s">
-        <v>849</v>
-      </c>
-      <c r="B86" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="C86" s="12" t="s">
+      <c r="A86" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B86" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="C86" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D86" s="8">
-        <v>43806.02600694444</v>
+        <v>43440.048414351855</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>850</v>
+        <v>812</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>851</v>
+        <v>813</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>852</v>
+        <v>814</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>853</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
+      <c r="W86" s="7"/>
+      <c r="X86" s="7"/>
+      <c r="Y86" s="7"/>
+      <c r="Z86" s="7"/>
+      <c r="AA86" s="7"/>
+      <c r="AB86" s="7"/>
+      <c r="AC86" s="7"/>
+      <c r="AD86" s="7"/>
+      <c r="AE86" s="7"/>
     </row>
     <row r="87">
       <c r="A87" s="6" t="s">
-        <v>854</v>
+        <v>815</v>
       </c>
       <c r="B87" s="5">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D87" s="8">
-        <v>45688.5997337963</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>855</v>
+        <v>45581.58190972222</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>816</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>856</v>
+        <v>1507</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>857</v>
+        <v>1508</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>853</v>
+        <v>807</v>
       </c>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
@@ -29463,100 +29710,86 @@
     </row>
     <row r="88">
       <c r="A88" s="6" t="s">
-        <v>858</v>
+        <v>120</v>
       </c>
       <c r="B88" s="5">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D88" s="8">
-        <v>45140.21668981481</v>
+        <v>45159.94464120371</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>859</v>
+        <v>819</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>860</v>
+        <v>1509</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>861</v>
+        <v>1510</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>853</v>
+        <v>807</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="6" t="s">
-        <v>866</v>
+        <v>733</v>
       </c>
       <c r="B89" s="5">
-        <v>4.0</v>
+        <v>266.0</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D89" s="8">
-        <v>42846.65876157407</v>
+        <v>44809.59725694444</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>1508</v>
+        <v>822</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>1509</v>
+        <v>823</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>1510</v>
+        <v>824</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-      <c r="N89" s="7"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="7"/>
-      <c r="Q89" s="7"/>
-      <c r="R89" s="7"/>
-      <c r="S89" s="7"/>
-      <c r="T89" s="7"/>
-      <c r="U89" s="7"/>
-      <c r="V89" s="7"/>
-      <c r="W89" s="7"/>
-      <c r="X89" s="7"/>
-      <c r="Y89" s="7"/>
-      <c r="Z89" s="7"/>
+        <v>807</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="13" t="s">
-        <v>679</v>
-      </c>
-      <c r="B90" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="C90" s="12" t="s">
+      <c r="A90" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="B90" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C90" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D90" s="8">
-        <v>43654.67784722222</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>710</v>
+        <v>45750.74662037037</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>828</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>1486</v>
-      </c>
+        <v>829</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>1511</v>
+      </c>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
       <c r="N90" s="7"/>
@@ -29572,232 +29805,224 @@
       <c r="X90" s="7"/>
       <c r="Y90" s="7"/>
       <c r="Z90" s="7"/>
-      <c r="AA90" s="7"/>
-      <c r="AB90" s="7"/>
-      <c r="AC90" s="7"/>
-      <c r="AD90" s="7"/>
-      <c r="AE90" s="7"/>
     </row>
     <row r="91">
-      <c r="A91" s="6" t="s">
-        <v>825</v>
-      </c>
-      <c r="B91" s="5">
-        <v>7.0</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>10</v>
+      <c r="A91" s="13" t="s">
+        <v>830</v>
+      </c>
+      <c r="B91" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="D91" s="8">
-        <v>45750.74662037037</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>871</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>711</v>
-      </c>
+        <v>43179.46226851852</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>1512</v>
+      </c>
+      <c r="J91" s="7"/>
     </row>
     <row r="92">
-      <c r="A92" s="6" t="s">
-        <v>873</v>
-      </c>
-      <c r="B92" s="5">
+      <c r="A92" s="13" t="s">
+        <v>834</v>
+      </c>
+      <c r="B92" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D92" s="8">
+        <v>43895.682604166665</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>1512</v>
+      </c>
+      <c r="J92" s="7"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="13" t="s">
+        <v>838</v>
+      </c>
+      <c r="B93" s="10">
         <v>1.0</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" s="8">
-        <v>44439.247569444444</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>874</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="B93" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D93" s="8">
-        <v>45232.786724537036</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>878</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>711</v>
-      </c>
+        <v>43742.522465277776</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>1512</v>
+      </c>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="7"/>
+      <c r="Y93" s="7"/>
+      <c r="Z93" s="7"/>
     </row>
     <row r="94">
       <c r="A94" s="6" t="s">
-        <v>880</v>
+        <v>321</v>
       </c>
       <c r="B94" s="5">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D94" s="8">
-        <v>44942.36461805556</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>711</v>
-      </c>
+        <v>43210.3409837963</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>1511</v>
+      </c>
+      <c r="J94" s="7"/>
     </row>
     <row r="95">
       <c r="A95" s="6" t="s">
-        <v>769</v>
+        <v>845</v>
       </c>
       <c r="B95" s="5">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D95" s="8">
-        <v>44998.10356481482</v>
+        <v>44961.1037037037</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>770</v>
+        <v>846</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>771</v>
+        <v>847</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>772</v>
+        <v>848</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="7"/>
-      <c r="O95" s="7"/>
-      <c r="P95" s="7"/>
-      <c r="Q95" s="7"/>
-      <c r="R95" s="7"/>
-      <c r="S95" s="7"/>
-      <c r="T95" s="7"/>
-      <c r="U95" s="7"/>
-      <c r="V95" s="7"/>
-      <c r="W95" s="7"/>
-      <c r="X95" s="7"/>
-      <c r="Y95" s="7"/>
-      <c r="Z95" s="7"/>
-      <c r="AA95" s="7"/>
-      <c r="AB95" s="7"/>
-      <c r="AC95" s="7"/>
-      <c r="AD95" s="7"/>
-      <c r="AE95" s="7"/>
+        <v>829</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>1511</v>
+      </c>
+      <c r="J95" s="7"/>
     </row>
     <row r="96">
-      <c r="A96" s="13" t="s">
-        <v>741</v>
+      <c r="A96" s="11" t="s">
+        <v>849</v>
       </c>
       <c r="B96" s="10">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>308</v>
+        <v>10</v>
       </c>
       <c r="D96" s="8">
-        <v>44830.575162037036</v>
+        <v>43806.02600694444</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>742</v>
+        <v>850</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>884</v>
+        <v>851</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>1511</v>
+        <v>852</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
-      <c r="M96" s="7"/>
-      <c r="N96" s="7"/>
-      <c r="O96" s="7"/>
-      <c r="P96" s="7"/>
-      <c r="Q96" s="7"/>
-      <c r="R96" s="7"/>
-      <c r="S96" s="7"/>
-      <c r="T96" s="7"/>
-      <c r="U96" s="7"/>
-      <c r="V96" s="7"/>
-      <c r="W96" s="7"/>
-      <c r="X96" s="7"/>
-      <c r="Y96" s="7"/>
-      <c r="Z96" s="7"/>
+        <v>853</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="6" t="s">
-        <v>993</v>
+        <v>854</v>
       </c>
       <c r="B97" s="5">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D97" s="8">
-        <v>45712.03097222222</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>1083</v>
+        <v>45688.5997337963</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>855</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>1084</v>
+        <v>856</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>1085</v>
+        <v>857</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
+        <v>853</v>
+      </c>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
@@ -29814,57 +30039,62 @@
       <c r="X97" s="7"/>
       <c r="Y97" s="7"/>
       <c r="Z97" s="7"/>
+      <c r="AA97" s="7"/>
+      <c r="AB97" s="7"/>
+      <c r="AC97" s="7"/>
+      <c r="AD97" s="7"/>
+      <c r="AE97" s="7"/>
     </row>
     <row r="98">
-      <c r="A98" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="B98" s="10">
-        <v>58.0</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>433</v>
+      <c r="A98" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="B98" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D98" s="8">
-        <v>44046.51642361111</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>886</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>887</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>888</v>
+        <v>45140.21668981481</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>861</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>773</v>
+        <v>853</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="6" t="s">
-        <v>472</v>
+        <v>866</v>
       </c>
       <c r="B99" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D99" s="8">
-        <v>43440.048414351855</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>889</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>890</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>891</v>
+        <v>42846.65876157407</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>1515</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>773</v>
+        <v>853</v>
       </c>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
@@ -29882,38 +30112,35 @@
       <c r="X99" s="7"/>
       <c r="Y99" s="7"/>
       <c r="Z99" s="7"/>
-      <c r="AA99" s="7"/>
-      <c r="AB99" s="7"/>
-      <c r="AC99" s="7"/>
-      <c r="AD99" s="7"/>
-      <c r="AE99" s="7"/>
     </row>
     <row r="100">
-      <c r="A100" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B100" s="5">
-        <v>12.0</v>
-      </c>
-      <c r="C100" s="7" t="s">
+      <c r="A100" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="B100" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="C100" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D100" s="8">
-        <v>44862.21916666667</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>893</v>
+        <v>43654.67784722222</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>710</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="K100" s="7"/>
+        <v>711</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>1487</v>
+      </c>
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
       <c r="N100" s="7"/>
@@ -29929,543 +30156,900 @@
       <c r="X100" s="7"/>
       <c r="Y100" s="7"/>
       <c r="Z100" s="7"/>
+      <c r="AA100" s="7"/>
+      <c r="AB100" s="7"/>
+      <c r="AC100" s="7"/>
+      <c r="AD100" s="7"/>
+      <c r="AE100" s="7"/>
     </row>
     <row r="101">
       <c r="A101" s="6" t="s">
-        <v>345</v>
+        <v>825</v>
       </c>
       <c r="B101" s="5">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D101" s="8">
-        <v>45232.786724537036</v>
+        <v>45750.74662037037</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>894</v>
+        <v>870</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>895</v>
+        <v>871</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>896</v>
+        <v>872</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>897</v>
+        <v>711</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="6" t="s">
-        <v>202</v>
+        <v>873</v>
       </c>
       <c r="B102" s="5">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D102" s="8">
-        <v>44029.59359953704</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>898</v>
+        <v>44439.247569444444</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>874</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>899</v>
+        <v>875</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>900</v>
+        <v>876</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>897</v>
+        <v>711</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="6" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="B103" s="5">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D103" s="8">
-        <v>43210.3409837963</v>
+        <v>45232.786724537036</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>901</v>
+        <v>877</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>902</v>
+        <v>878</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>903</v>
+        <v>879</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>897</v>
+        <v>711</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="13" t="s">
-        <v>904</v>
-      </c>
-      <c r="B104" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C104" s="12" t="s">
+      <c r="A104" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="B104" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="C104" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D104" s="8">
-        <v>43483.78111111111</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>907</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>908</v>
+        <v>44942.36461805556</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="6" t="s">
-        <v>909</v>
+        <v>769</v>
       </c>
       <c r="B105" s="5">
-        <v>25.0</v>
+        <v>1.0</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D105" s="8">
-        <v>45607.78807870371</v>
+        <v>44998.10356481482</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>910</v>
+        <v>770</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>911</v>
+        <v>771</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>912</v>
+        <v>772</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>908</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="7"/>
+      <c r="O105" s="7"/>
+      <c r="P105" s="7"/>
+      <c r="Q105" s="7"/>
+      <c r="R105" s="7"/>
+      <c r="S105" s="7"/>
+      <c r="T105" s="7"/>
+      <c r="U105" s="7"/>
+      <c r="V105" s="7"/>
+      <c r="W105" s="7"/>
+      <c r="X105" s="7"/>
+      <c r="Y105" s="7"/>
+      <c r="Z105" s="7"/>
+      <c r="AA105" s="7"/>
+      <c r="AB105" s="7"/>
+      <c r="AC105" s="7"/>
+      <c r="AD105" s="7"/>
+      <c r="AE105" s="7"/>
     </row>
     <row r="106">
-      <c r="A106" s="6" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B106" s="5">
+      <c r="A106" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="B106" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D106" s="8">
+        <v>44830.575162037036</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>1516</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="7"/>
+      <c r="O106" s="7"/>
+      <c r="P106" s="7"/>
+      <c r="Q106" s="7"/>
+      <c r="R106" s="7"/>
+      <c r="S106" s="7"/>
+      <c r="T106" s="7"/>
+      <c r="U106" s="7"/>
+      <c r="V106" s="7"/>
+      <c r="W106" s="7"/>
+      <c r="X106" s="7"/>
+      <c r="Y106" s="7"/>
+      <c r="Z106" s="7"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="B107" s="5">
         <v>1.0</v>
       </c>
-      <c r="C106" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D106" s="8">
-        <v>45610.63476851852</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>1386</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>1387</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>1388</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="13" t="s">
-        <v>679</v>
-      </c>
-      <c r="B107" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="C107" s="12" t="s">
+      <c r="C107" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D107" s="8">
-        <v>43654.67784722222</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>920</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>922</v>
-      </c>
-      <c r="H107" s="12" t="s">
-        <v>923</v>
-      </c>
+        <v>45712.03097222222</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="7"/>
+      <c r="O107" s="7"/>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="7"/>
+      <c r="R107" s="7"/>
+      <c r="S107" s="7"/>
+      <c r="T107" s="7"/>
+      <c r="U107" s="7"/>
+      <c r="V107" s="7"/>
+      <c r="W107" s="7"/>
+      <c r="X107" s="7"/>
+      <c r="Y107" s="7"/>
+      <c r="Z107" s="7"/>
     </row>
     <row r="108">
-      <c r="A108" s="11" t="s">
-        <v>341</v>
+      <c r="A108" s="13" t="s">
+        <v>432</v>
       </c>
       <c r="B108" s="10">
-        <v>134.0</v>
+        <v>58.0</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>10</v>
+        <v>433</v>
       </c>
       <c r="D108" s="8">
-        <v>43671.67642361111</v>
+        <v>44046.51642361111</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>1512</v>
+        <v>886</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>925</v>
+        <v>887</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>1513</v>
-      </c>
-      <c r="H108" s="12" t="s">
-        <v>923</v>
-      </c>
-      <c r="K108" s="7"/>
-      <c r="L108" s="7"/>
-      <c r="M108" s="7"/>
-      <c r="N108" s="7"/>
-      <c r="O108" s="7"/>
-      <c r="P108" s="7"/>
-      <c r="Q108" s="7"/>
-      <c r="R108" s="7"/>
-      <c r="S108" s="7"/>
-      <c r="T108" s="7"/>
-      <c r="U108" s="7"/>
-      <c r="V108" s="7"/>
-      <c r="W108" s="7"/>
-      <c r="X108" s="7"/>
-      <c r="Y108" s="7"/>
-      <c r="Z108" s="7"/>
+        <v>888</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="13" t="s">
-        <v>671</v>
-      </c>
-      <c r="B109" s="10">
+      <c r="A109" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B109" s="5">
         <v>3.0</v>
       </c>
-      <c r="C109" s="12" t="s">
+      <c r="C109" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D109" s="8">
-        <v>43004.99476851852</v>
+        <v>43440.048414351855</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>935</v>
+        <v>889</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>936</v>
+        <v>890</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>937</v>
+        <v>891</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>938</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="7"/>
+      <c r="O109" s="7"/>
+      <c r="P109" s="7"/>
+      <c r="Q109" s="7"/>
+      <c r="R109" s="7"/>
+      <c r="S109" s="7"/>
+      <c r="T109" s="7"/>
+      <c r="U109" s="7"/>
+      <c r="V109" s="7"/>
+      <c r="W109" s="7"/>
+      <c r="X109" s="7"/>
+      <c r="Y109" s="7"/>
+      <c r="Z109" s="7"/>
+      <c r="AA109" s="7"/>
+      <c r="AB109" s="7"/>
+      <c r="AC109" s="7"/>
+      <c r="AD109" s="7"/>
+      <c r="AE109" s="7"/>
     </row>
     <row r="110">
-      <c r="A110" s="13" t="s">
-        <v>939</v>
-      </c>
-      <c r="B110" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>129</v>
+      <c r="A110" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B110" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D110" s="8">
-        <v>44856.735289351855</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>940</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>941</v>
+        <v>44862.21916666667</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>893</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>942</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="K110" s="7"/>
+      <c r="L110" s="7"/>
+      <c r="M110" s="7"/>
+      <c r="N110" s="7"/>
+      <c r="O110" s="7"/>
+      <c r="P110" s="7"/>
+      <c r="Q110" s="7"/>
+      <c r="R110" s="7"/>
+      <c r="S110" s="7"/>
+      <c r="T110" s="7"/>
+      <c r="U110" s="7"/>
+      <c r="V110" s="7"/>
+      <c r="W110" s="7"/>
+      <c r="X110" s="7"/>
+      <c r="Y110" s="7"/>
+      <c r="Z110" s="7"/>
     </row>
     <row r="111">
-      <c r="A111" s="13" t="s">
-        <v>943</v>
-      </c>
-      <c r="B111" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C111" s="12" t="s">
+      <c r="A111" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B111" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="C111" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D111" s="8">
-        <v>43167.78689814815</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>944</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>945</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>946</v>
-      </c>
-      <c r="H111" s="20" t="s">
-        <v>947</v>
+        <v>45232.786724537036</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B112" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C112" s="12" t="s">
+      <c r="A112" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B112" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="C112" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D112" s="8">
-        <v>42648.86766203704</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>1074</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>1075</v>
+        <v>44029.59359953704</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="6" t="s">
-        <v>698</v>
+        <v>321</v>
       </c>
       <c r="B113" s="5">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D113" s="8">
-        <v>45044.667037037034</v>
+        <v>43210.3409837963</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>1514</v>
+        <v>901</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>1515</v>
+        <v>897</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="13" t="s">
+        <v>904</v>
+      </c>
+      <c r="B114" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" s="8">
+        <v>43483.78111111111</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="B115" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" s="8">
+        <v>45607.78807870371</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="6" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B116" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" s="8">
+        <v>45610.63476851852</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="B117" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" s="8">
+        <v>43654.67784722222</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="H117" s="12" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B118" s="10">
+        <v>134.0</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" s="8">
+        <v>43671.67642361111</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>1518</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>923</v>
+      </c>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="7"/>
+      <c r="O118" s="7"/>
+      <c r="P118" s="7"/>
+      <c r="Q118" s="7"/>
+      <c r="R118" s="7"/>
+      <c r="S118" s="7"/>
+      <c r="T118" s="7"/>
+      <c r="U118" s="7"/>
+      <c r="V118" s="7"/>
+      <c r="W118" s="7"/>
+      <c r="X118" s="7"/>
+      <c r="Y118" s="7"/>
+      <c r="Z118" s="7"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="13" t="s">
+        <v>671</v>
+      </c>
+      <c r="B119" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" s="8">
+        <v>43004.99476851852</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="13" t="s">
+        <v>939</v>
+      </c>
+      <c r="B120" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D120" s="8">
+        <v>44856.735289351855</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="13" t="s">
+        <v>943</v>
+      </c>
+      <c r="B121" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" s="8">
+        <v>43167.78689814815</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="H121" s="20" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B122" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" s="8">
+        <v>42648.86766203704</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="B123" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="8">
+        <v>45044.667037037034</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="B114" s="10">
+      <c r="B124" s="10">
         <v>58.0</v>
       </c>
-      <c r="C114" s="12" t="s">
+      <c r="C124" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="D114" s="8">
+      <c r="D124" s="8">
         <v>44046.51642361111</v>
       </c>
-      <c r="E114" s="4" t="s">
+      <c r="E124" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="F114" s="4" t="s">
+      <c r="F124" s="4" t="s">
         <v>918</v>
       </c>
-      <c r="G114" s="4" t="s">
+      <c r="G124" s="4" t="s">
         <v>919</v>
       </c>
-      <c r="H114" s="3" t="s">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="I117" s="4" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="I118" s="4" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="I119" s="4" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="I120" s="4" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="I121" s="4" t="s">
+      <c r="H124" s="3" t="s">
         <v>1520</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="I122" s="4" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="I123" s="4" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="I124" s="4" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="I125" s="4" t="s">
-        <v>1524</v>
-      </c>
-      <c r="L125" s="4" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="I126" s="4" t="s">
-        <v>1526</v>
       </c>
     </row>
     <row r="127">
       <c r="I127" s="4" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="128">
       <c r="I128" s="4" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="129">
       <c r="I129" s="4" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="130">
       <c r="I130" s="4" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="131">
       <c r="I131" s="4" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="132">
       <c r="I132" s="4" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="133">
       <c r="I133" s="4" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="134">
       <c r="I134" s="4" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="135">
       <c r="I135" s="4" t="s">
+        <v>1529</v>
+      </c>
+      <c r="L135" s="4" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="I136" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="I137" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="I138" s="4" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="I139" s="4" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="I140" s="4" t="s">
         <v>1535</v>
       </c>
     </row>
-    <row r="136">
-      <c r="I136" s="3" t="s">
+    <row r="141">
+      <c r="I141" s="4" t="s">
         <v>1536</v>
       </c>
-      <c r="J136" s="7"/>
-    </row>
-    <row r="137">
-      <c r="I137" s="7"/>
-      <c r="J137" s="7"/>
-    </row>
-    <row r="138">
-      <c r="I138" s="7"/>
-      <c r="J138" s="7"/>
-    </row>
-    <row r="139">
-      <c r="I139" s="7"/>
-      <c r="J139" s="7"/>
-    </row>
-    <row r="140">
-      <c r="J140" s="7"/>
+    </row>
+    <row r="142">
+      <c r="I142" s="4" t="s">
+        <v>1537</v>
+      </c>
     </row>
     <row r="143">
-      <c r="J143" s="7"/>
+      <c r="I143" s="4" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="I144" s="4" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="I145" s="4" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="I146" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="J146" s="7"/>
     </row>
     <row r="147">
+      <c r="I147" s="7"/>
       <c r="J147" s="7"/>
+    </row>
+    <row r="148">
+      <c r="I148" s="7"/>
+      <c r="J148" s="7"/>
+    </row>
+    <row r="149">
+      <c r="I149" s="7"/>
+      <c r="J149" s="7"/>
+    </row>
+    <row r="150">
+      <c r="J150" s="7"/>
     </row>
     <row r="153">
       <c r="J153" s="7"/>
     </row>
-    <row r="154">
-      <c r="I154" s="7"/>
-      <c r="J154" s="7"/>
-    </row>
-    <row r="155">
-      <c r="I155" s="7"/>
-      <c r="J155" s="7"/>
-    </row>
     <row r="157">
-      <c r="I157" s="7"/>
       <c r="J157" s="7"/>
     </row>
-    <row r="159">
-      <c r="I159" s="7"/>
-      <c r="J159" s="7"/>
+    <row r="163">
+      <c r="J163" s="7"/>
     </row>
     <row r="164">
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
     </row>
+    <row r="165">
+      <c r="I165" s="7"/>
+      <c r="J165" s="7"/>
+    </row>
+    <row r="167">
+      <c r="I167" s="7"/>
+      <c r="J167" s="7"/>
+    </row>
     <row r="169">
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
     </row>
-    <row r="170">
-      <c r="I170" s="7"/>
-      <c r="J170" s="7"/>
-    </row>
-    <row r="171">
-      <c r="I171" s="7"/>
-      <c r="J171" s="7"/>
+    <row r="174">
+      <c r="I174" s="7"/>
+      <c r="J174" s="7"/>
+    </row>
+    <row r="179">
+      <c r="I179" s="7"/>
+      <c r="J179" s="7"/>
+    </row>
+    <row r="180">
+      <c r="I180" s="7"/>
+      <c r="J180" s="7"/>
+    </row>
+    <row r="181">
+      <c r="I181" s="7"/>
+      <c r="J181" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -30583,8 +31167,18 @@
     <hyperlink r:id="rId112" ref="A112"/>
     <hyperlink r:id="rId113" ref="A113"/>
     <hyperlink r:id="rId114" ref="A114"/>
+    <hyperlink r:id="rId115" ref="A115"/>
+    <hyperlink r:id="rId116" ref="A116"/>
+    <hyperlink r:id="rId117" ref="A117"/>
+    <hyperlink r:id="rId118" ref="A118"/>
+    <hyperlink r:id="rId119" ref="A119"/>
+    <hyperlink r:id="rId120" ref="A120"/>
+    <hyperlink r:id="rId121" ref="A121"/>
+    <hyperlink r:id="rId122" ref="A122"/>
+    <hyperlink r:id="rId123" ref="A123"/>
+    <hyperlink r:id="rId124" ref="A124"/>
   </hyperlinks>
-  <drawing r:id="rId115"/>
+  <drawing r:id="rId125"/>
 </worksheet>
 </file>
 
@@ -30606,766 +31200,741 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
-        <v>948</v>
-      </c>
-      <c r="B1" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>160</v>
+      <c r="A1" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1" s="5">
+        <v>16.0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D1" s="8">
-        <v>44048.62490740741</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>950</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>952</v>
+        <v>45113.239652777775</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="s">
-        <v>953</v>
-      </c>
-      <c r="B2" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="B2" s="5">
+        <v>51.0</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="8">
-        <v>43483.78111111111</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>954</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
+        <v>45602.4784375</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>985</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="s">
-        <v>959</v>
-      </c>
-      <c r="B3" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="A3" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="B3" s="5">
+        <v>498.0</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="8">
-        <v>43481.413981481484</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>1537</v>
+        <v>45384.877962962964</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>987</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>961</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>962</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>952</v>
-      </c>
+        <v>990</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="I3" s="7"/>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="s">
-        <v>963</v>
-      </c>
-      <c r="B4" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>129</v>
+      <c r="A4" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="B4" s="5">
+        <v>373.0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D4" s="8">
-        <v>43056.28474537037</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>964</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>952</v>
-      </c>
+        <v>45301.49920138889</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>129</v>
+      <c r="A5" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="5">
+        <v>743.0</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D5" s="8">
-        <v>44145.91936342593</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>966</v>
+        <v>45268.50195601852</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>987</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>952</v>
-      </c>
+        <v>985</v>
+      </c>
+      <c r="I5" s="7"/>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>129</v>
+      <c r="A6" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="5">
+        <v>197.0</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D6" s="8">
-        <v>43662.7924537037</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>970</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>952</v>
+        <v>45167.40300925926</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>134</v>
+      <c r="A7" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="5">
+        <v>38.0</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D7" s="8">
-        <v>43713.30019675926</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>971</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>1538</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>1539</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>952</v>
+        <v>45049.495833333334</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>402</v>
+      <c r="A8" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="B8" s="5">
-        <v>1.0</v>
+        <v>27.0</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="8">
-        <v>45542.427037037036</v>
+        <v>45027.483090277776</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1540</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="7"/>
+        <v>987</v>
+      </c>
       <c r="H8" s="3" t="s">
-        <v>952</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
+        <v>985</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>975</v>
+        <v>190</v>
       </c>
       <c r="B9" s="5">
-        <v>3.0</v>
+        <v>53.0</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="8">
-        <v>43529.461331018516</v>
+        <v>44966.56943287037</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>976</v>
+        <v>987</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>952</v>
+        <v>985</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>977</v>
+        <v>189</v>
       </c>
       <c r="B10" s="5">
-        <v>2.0</v>
+        <v>22.0</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="8">
-        <v>43306.89791666667</v>
+        <v>44972.481469907405</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>978</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+        <v>987</v>
+      </c>
       <c r="H10" s="3" t="s">
-        <v>952</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
+        <v>985</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>420</v>
+        <v>188</v>
       </c>
       <c r="B11" s="5">
-        <v>16.0</v>
+        <v>51.0</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="8">
-        <v>45113.239652777775</v>
+        <v>44984.55787037037</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>983</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>985</v>
       </c>
+      <c r="I11" s="7"/>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>986</v>
+        <v>187</v>
       </c>
       <c r="B12" s="5">
-        <v>51.0</v>
+        <v>119.0</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="8">
-        <v>45602.4784375</v>
+        <v>45013.73370370371</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>988</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>989</v>
+        <v>186</v>
       </c>
       <c r="B13" s="5">
-        <v>498.0</v>
+        <v>27.0</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="8">
-        <v>45384.877962962964</v>
+        <v>45027.483090277776</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>990</v>
-      </c>
       <c r="H13" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="I13" s="7"/>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B14" s="5">
-        <v>373.0</v>
+        <v>1.0</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="8">
-        <v>45301.49920138889</v>
+        <v>45712.03097222222</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B15" s="5">
-        <v>743.0</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="A15" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="B15" s="10">
+        <v>134.0</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="8">
-        <v>45268.50195601852</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>987</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>985</v>
-      </c>
-      <c r="I15" s="7"/>
+        <v>43671.67642361111</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>998</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B16" s="5">
-        <v>197.0</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="A16" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="B16" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="8">
-        <v>45167.40300925926</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>987</v>
+        <v>44499.95482638889</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>1000</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>985</v>
+        <v>998</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="B17" s="5">
-        <v>38.0</v>
+        <v>13.0</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="8">
-        <v>45049.495833333334</v>
+        <v>45737.205405092594</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>987</v>
+        <v>1001</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>1542</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>985</v>
+        <v>998</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="B18" s="5">
-        <v>27.0</v>
+        <v>12.0</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="8">
-        <v>45027.483090277776</v>
+        <v>44862.21916666667</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>987</v>
+        <v>1003</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>1004</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>985</v>
+        <v>998</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>190</v>
+        <v>1005</v>
       </c>
       <c r="B19" s="5">
-        <v>53.0</v>
+        <v>2.0</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="8">
-        <v>44966.56943287037</v>
+        <v>45570.40825231482</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>987</v>
+        <v>1006</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>1007</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>985</v>
+        <v>998</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B20" s="5">
-        <v>22.0</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="A20" s="13" t="s">
+        <v>953</v>
+      </c>
+      <c r="B20" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="8">
-        <v>44972.481469907405</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>987</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>985</v>
+        <v>43483.78111111111</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B21" s="5">
-        <v>51.0</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>10</v>
+      <c r="A21" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="B21" s="10">
+        <v>58.0</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="D21" s="8">
-        <v>44984.55787037037</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>987</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>985</v>
-      </c>
-      <c r="I21" s="7"/>
+        <v>44046.51642361111</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>930</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>187</v>
+        <v>1014</v>
       </c>
       <c r="B22" s="5">
-        <v>119.0</v>
+        <v>1.0</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="8">
-        <v>45013.73370370371</v>
+        <v>44700.270266203705</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>987</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>985</v>
+        <v>1015</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>186</v>
+        <v>345</v>
       </c>
       <c r="B23" s="5">
-        <v>27.0</v>
+        <v>6.0</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="8">
-        <v>45027.483090277776</v>
+        <v>45232.786724537036</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>987</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>985</v>
+        <v>1017</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="B24" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="8">
+        <v>44961.1037037037</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="s">
         <v>993</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B25" s="5">
         <v>1.0</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="8">
+      <c r="C25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="8">
         <v>45712.03097222222</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>994</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="B25" s="10">
-        <v>134.0</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="8">
-        <v>43671.67642361111</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>996</v>
+      <c r="E25" s="3" t="s">
+        <v>1543</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>997</v>
+        <v>1020</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>998</v>
+        <v>930</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="s">
-        <v>999</v>
+      <c r="A26" s="13" t="s">
+        <v>1022</v>
       </c>
       <c r="B26" s="10">
-        <v>7.0</v>
+        <v>38.0</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="8">
-        <v>44499.95482638889</v>
+        <v>44311.91575231482</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>998</v>
+        <v>1023</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>1000</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>998</v>
+        <v>1024</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B27" s="5">
-        <v>13.0</v>
-      </c>
-      <c r="C27" s="7" t="s">
+      <c r="A27" s="13" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B27" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="8">
-        <v>45737.205405092594</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>1541</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>998</v>
+        <v>44280.4653587963</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B28" s="5">
-        <v>12.0</v>
-      </c>
-      <c r="C28" s="7" t="s">
+      <c r="A28" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="8">
-        <v>44862.21916666667</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>1004</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>998</v>
+        <v>44072.31211805555</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>1005</v>
+        <v>240</v>
       </c>
       <c r="B29" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="8">
-        <v>45570.40825231482</v>
+        <v>45485.367731481485</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>1007</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>998</v>
+        <v>1034</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="13" t="s">
-        <v>953</v>
+        <v>1037</v>
       </c>
       <c r="B30" s="10">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="8">
-        <v>43483.78111111111</v>
+        <v>44312.617268518516</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>1008</v>
+        <v>1038</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>1010</v>
+        <v>1039</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>930</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="13" t="s">
-        <v>432</v>
+        <v>1041</v>
       </c>
       <c r="B31" s="10">
-        <v>58.0</v>
+        <v>2.0</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>433</v>
+        <v>10</v>
       </c>
       <c r="D31" s="8">
-        <v>44046.51642361111</v>
+        <v>44446.78040509259</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>1011</v>
+        <v>1042</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>1013</v>
+        <v>1043</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>930</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>1014</v>
+        <v>1044</v>
       </c>
       <c r="B32" s="5">
         <v>1.0</v>
@@ -31374,243 +31943,247 @@
         <v>10</v>
       </c>
       <c r="D32" s="8">
-        <v>44700.270266203705</v>
+        <v>45761.4506712963</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>1016</v>
+        <v>1045</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>930</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>345</v>
+        <v>1046</v>
       </c>
       <c r="B33" s="5">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="8">
-        <v>45232.786724537036</v>
+        <v>45570.53034722222</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>1017</v>
+        <v>1047</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>930</v>
-      </c>
+        <v>1048</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>845</v>
+        <v>472</v>
       </c>
       <c r="B34" s="5">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="8">
-        <v>44961.1037037037</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>927</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>929</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>930</v>
-      </c>
+        <v>43440.048414351855</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>993</v>
+        <v>633</v>
       </c>
       <c r="B35" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="8">
+        <v>44299.54675925926</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="B36" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="8">
+        <v>45118.59173611111</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B37" s="5">
         <v>1.0</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="8">
-        <v>45712.03097222222</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>1542</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="13" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B36" s="10">
-        <v>38.0</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="8">
-        <v>44311.91575231482</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>1024</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>1025</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="13" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B37" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="8">
-        <v>44280.4653587963</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>1029</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>1030</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>1026</v>
+        <v>43294.163298611114</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="s">
-        <v>147</v>
+      <c r="A38" s="13" t="s">
+        <v>1037</v>
       </c>
       <c r="B38" s="10">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="8">
-        <v>44072.31211805555</v>
+        <v>44312.617268518516</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>1031</v>
+        <v>1064</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>1032</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>1033</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>1026</v>
+        <v>1065</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B39" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="C39" s="7" t="s">
+      <c r="A39" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="8">
-        <v>45485.367731481485</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>1034</v>
+        <v>43446.956828703704</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>1066</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>1035</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>1036</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>1026</v>
+        <v>1067</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="13" t="s">
-        <v>1037</v>
+      <c r="A40" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="B40" s="10">
-        <v>2.0</v>
+        <v>21.0</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D40" s="8">
-        <v>44312.617268518516</v>
+        <v>44824.467939814815</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>1038</v>
+        <v>1068</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>1039</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>1040</v>
+        <v>1069</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="13" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B41" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="8">
-        <v>44446.78040509259</v>
-      </c>
+        <v>1544</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>1042</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>1043</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>1040</v>
+        <v>1070</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
-        <v>1044</v>
+        <v>760</v>
       </c>
       <c r="B42" s="5">
         <v>1.0</v>
@@ -31619,74 +32192,67 @@
         <v>10</v>
       </c>
       <c r="D42" s="8">
-        <v>45761.4506712963</v>
+        <v>45314.404814814814</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>1045</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>1040</v>
+        <v>1080</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>1046</v>
+        <v>825</v>
       </c>
       <c r="B43" s="5">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D43" s="8">
-        <v>45570.53034722222</v>
+        <v>45750.74662037037</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>1048</v>
+        <v>1546</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>916</v>
-      </c>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7"/>
-      <c r="W43" s="7"/>
-      <c r="X43" s="7"/>
-      <c r="Y43" s="7"/>
-      <c r="Z43" s="7"/>
+        <v>1055</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>472</v>
+        <v>221</v>
       </c>
       <c r="B44" s="5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="8">
-        <v>43440.048414351855</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>916</v>
-      </c>
+        <v>45372.83511574074</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
@@ -31706,54 +32272,51 @@
       <c r="Z44" s="7"/>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="B45" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="8">
-        <v>44299.54675925926</v>
-      </c>
+      <c r="A45" s="13" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>1050</v>
+        <v>1091</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>916</v>
+        <v>1092</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>480</v>
+        <v>1094</v>
       </c>
       <c r="B46" s="5">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="8">
-        <v>45118.59173611111</v>
+        <v>44218.24114583333</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>1057</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>916</v>
+        <v>1095</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>1547</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="6" t="s">
-        <v>1058</v>
+        <v>760</v>
       </c>
       <c r="B47" s="5">
         <v>1.0</v>
@@ -31762,312 +32325,73 @@
         <v>10</v>
       </c>
       <c r="D47" s="8">
-        <v>43294.163298611114</v>
+        <v>45314.404814814814</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>1059</v>
+        <v>1098</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>1060</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>916</v>
-      </c>
+        <v>1548</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
     </row>
     <row r="48">
-      <c r="A48" s="13" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B48" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="8">
-        <v>44312.617268518516</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>1065</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>916</v>
+      <c r="I48" s="4" t="s">
+        <v>1549</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="B49" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="8">
-        <v>43446.956828703704</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>1066</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>916</v>
+      <c r="I49" s="4" t="s">
+        <v>1550</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="B50" s="10">
-        <v>21.0</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D50" s="8">
-        <v>44824.467939814815</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>916</v>
+      <c r="I50" s="4" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="13" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4" t="s">
-        <v>1070</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>916</v>
+      <c r="I51" s="4" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="B52" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="8">
-        <v>45314.404814814814</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>1544</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>916</v>
+      <c r="I52" s="4" t="s">
+        <v>1552</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="s">
-        <v>825</v>
-      </c>
-      <c r="B53" s="5">
-        <v>7.0</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="8">
-        <v>45750.74662037037</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>1545</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>1055</v>
+      <c r="I53" s="4" t="s">
+        <v>1553</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B54" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="8">
-        <v>45372.83511574074</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>1087</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>1088</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>1089</v>
-      </c>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="7"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="7"/>
-      <c r="V54" s="7"/>
-      <c r="W54" s="7"/>
-      <c r="X54" s="7"/>
-      <c r="Y54" s="7"/>
-      <c r="Z54" s="7"/>
+      <c r="I54" s="4" t="s">
+        <v>1554</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="13" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4" t="s">
-        <v>1091</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>1092</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>1093</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="6" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B56" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="8">
-        <v>44218.24114583333</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>1095</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>1546</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="B57" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="8">
-        <v>45314.404814814814</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>1547</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>1089</v>
-      </c>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="7"/>
-      <c r="T57" s="7"/>
-      <c r="U57" s="7"/>
-      <c r="V57" s="7"/>
-      <c r="W57" s="7"/>
-      <c r="X57" s="7"/>
-      <c r="Y57" s="7"/>
-      <c r="Z57" s="7"/>
-    </row>
-    <row r="58">
-      <c r="I58" s="4" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="I59" s="4" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="I60" s="4" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="I61" s="4" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="I62" s="4" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="I63" s="4" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="I64" s="4" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="I65" s="4" t="s">
-        <v>1554</v>
+      <c r="I55" s="4" t="s">
+        <v>1555</v>
       </c>
     </row>
   </sheetData>
@@ -32119,18 +32443,8 @@
     <hyperlink r:id="rId45" ref="A45"/>
     <hyperlink r:id="rId46" ref="A46"/>
     <hyperlink r:id="rId47" ref="A47"/>
-    <hyperlink r:id="rId48" ref="A48"/>
-    <hyperlink r:id="rId49" ref="A49"/>
-    <hyperlink r:id="rId50" ref="A50"/>
-    <hyperlink r:id="rId51" ref="A51"/>
-    <hyperlink r:id="rId52" ref="A52"/>
-    <hyperlink r:id="rId53" ref="A53"/>
-    <hyperlink r:id="rId54" ref="A54"/>
-    <hyperlink r:id="rId55" ref="A55"/>
-    <hyperlink r:id="rId56" ref="A56"/>
-    <hyperlink r:id="rId57" ref="A57"/>
   </hyperlinks>
-  <drawing r:id="rId58"/>
+  <drawing r:id="rId48"/>
 </worksheet>
 </file>
 
@@ -32231,7 +32545,7 @@
         <v>44158.567881944444</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>764</v>
@@ -32369,7 +32683,7 @@
         <v>956</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>958</v>
@@ -32392,7 +32706,7 @@
         <v>45761.4506712963</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>1062</v>
@@ -33117,7 +33431,7 @@
         <v>1168</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>764</v>
@@ -33565,7 +33879,7 @@
         <v>1197</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>1123</v>
@@ -33683,7 +33997,7 @@
         <v>44439.77465277778</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>1123</v>
@@ -33743,7 +34057,7 @@
         <v>44072.31211805555</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>1123</v>
@@ -33849,7 +34163,7 @@
         <v>44023.864756944444</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>1229</v>
@@ -33933,7 +34247,7 @@
     </row>
     <row r="55">
       <c r="I55" s="4" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
   </sheetData>
@@ -34031,7 +34345,7 @@
         <v>1242</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -34077,7 +34391,7 @@
         <v>1246</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -34119,7 +34433,7 @@
         <v>1248</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -34161,7 +34475,7 @@
         <v>1250</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="5">
@@ -34185,7 +34499,7 @@
         <v>1253</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -34227,7 +34541,7 @@
         <v>1255</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="7">
@@ -34251,7 +34565,7 @@
         <v>1258</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -34292,7 +34606,7 @@
         <v>1260</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -34334,7 +34648,7 @@
         <v>1263</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -34375,7 +34689,7 @@
         <v>1265</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="11">
@@ -34395,7 +34709,7 @@
         <v>1264</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="12">
@@ -34415,7 +34729,7 @@
         <v>1264</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="13">
@@ -34435,7 +34749,7 @@
         <v>1264</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="14">
@@ -34455,7 +34769,7 @@
         <v>1264</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="15">
@@ -34475,7 +34789,7 @@
         <v>1264</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="16">
@@ -34495,7 +34809,7 @@
         <v>1264</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="17">
@@ -34515,7 +34829,7 @@
         <v>1264</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="18">
@@ -34535,7 +34849,7 @@
         <v>1264</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="19">
@@ -34559,7 +34873,7 @@
         <v>1267</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -34594,14 +34908,14 @@
         <v>45570.53034722222</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="3" t="s">
         <v>1269</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -34642,7 +34956,7 @@
         <v>1270</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="22">
@@ -34665,7 +34979,7 @@
         <v>1271</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="23">
@@ -34688,7 +35002,7 @@
         <v>1272</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="24">
@@ -34711,7 +35025,7 @@
         <v>1274</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="25">
@@ -34734,7 +35048,7 @@
         <v>1276</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="26">
@@ -34751,13 +35065,13 @@
         <v>42976.330671296295</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>1278</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="27">
@@ -34780,7 +35094,7 @@
         <v>1280</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="28">
@@ -34803,7 +35117,7 @@
         <v>1282</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="29">
@@ -34826,7 +35140,7 @@
         <v>1284</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="30">
@@ -34843,7 +35157,7 @@
         <v>44421.75695601852</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>1287</v>
@@ -34852,7 +35166,7 @@
         <v>1288</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="31">
@@ -34869,7 +35183,7 @@
         <v>44657.62871527778</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>1292</v>
@@ -34878,7 +35192,7 @@
         <v>1293</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="32">
@@ -34904,7 +35218,7 @@
         <v>1297</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -34948,7 +35262,7 @@
         <v>1301</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -34992,7 +35306,7 @@
         <v>1305</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
@@ -35036,7 +35350,7 @@
         <v>1309</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
@@ -35078,7 +35392,7 @@
         <v>1311</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
@@ -35122,7 +35436,7 @@
         <v>1314</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -35160,13 +35474,13 @@
         <v>1315</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
@@ -35210,7 +35524,7 @@
         <v>1321</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
@@ -35254,7 +35568,7 @@
         <v>1324</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
@@ -35298,7 +35612,7 @@
         <v>1326</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
@@ -35342,7 +35656,7 @@
         <v>1328</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -35386,7 +35700,7 @@
         <v>1330</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
@@ -35424,7 +35738,7 @@
         <v>1322</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="45">
@@ -35444,10 +35758,10 @@
         <v>1322</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="46">
@@ -35467,7 +35781,7 @@
         <v>1322</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="47">
@@ -35487,7 +35801,7 @@
         <v>1322</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="48">
@@ -35507,7 +35821,7 @@
         <v>1322</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="49">
@@ -35527,7 +35841,7 @@
         <v>1322</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="50">
@@ -35547,7 +35861,7 @@
         <v>1322</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="51">
@@ -35567,7 +35881,7 @@
         <v>1322</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
   </sheetData>
@@ -35661,7 +35975,7 @@
         <v>44263.718310185184</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>1332</v>
@@ -35687,7 +36001,7 @@
         <v>44203.81586805556</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>1334</v>
@@ -35770,7 +36084,7 @@
         <v>45485.367731481485</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="4" t="s">
@@ -36291,57 +36605,7 @@
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
     </row>
-    <row r="22">
-      <c r="A22" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="8">
-        <v>43888.64717592593</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>1397</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>1398</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>1399</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>1400</v>
-      </c>
-    </row>
     <row r="23">
-      <c r="A23" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B23" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="8">
-        <v>45159.94464120371</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>1401</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>1402</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>1400</v>
-      </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -36362,30 +36626,6 @@
       <c r="Z23" s="7"/>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B24" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="8">
-        <v>45274.472604166665</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>1403</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>1404</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>1405</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>1400</v>
-      </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -36406,30 +36646,6 @@
       <c r="Z24" s="7"/>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="s">
-        <v>1406</v>
-      </c>
-      <c r="B25" s="5">
-        <v>7.0</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="8">
-        <v>45703.10460648148</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>1576</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>1408</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>1409</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>1400</v>
-      </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -36450,30 +36666,6 @@
       <c r="Z25" s="7"/>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B26" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="8">
-        <v>42782.7422337963</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>1410</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>1411</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>1412</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>1400</v>
-      </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -36493,32 +36685,6 @@
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="B27" s="10">
-        <v>134.0</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="8">
-        <v>43671.67642361111</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>1413</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>1414</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>1415</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>1400</v>
-      </c>
     </row>
     <row r="29">
       <c r="J29" s="4" t="s">
@@ -36571,13 +36737,7 @@
     <hyperlink r:id="rId19" ref="A19"/>
     <hyperlink r:id="rId20" ref="A20"/>
     <hyperlink r:id="rId21" ref="A21"/>
-    <hyperlink r:id="rId22" ref="A22"/>
-    <hyperlink r:id="rId23" ref="A23"/>
-    <hyperlink r:id="rId24" ref="A24"/>
-    <hyperlink r:id="rId25" ref="A25"/>
-    <hyperlink r:id="rId26" ref="A26"/>
-    <hyperlink r:id="rId27" ref="A27"/>
   </hyperlinks>
-  <drawing r:id="rId28"/>
+  <drawing r:id="rId22"/>
 </worksheet>
 </file>